--- a/outputs/recommendations.xlsx
+++ b/outputs/recommendations.xlsx
@@ -468,163 +468,109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>Be</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Gd</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Gd</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>In</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sm</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sm</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.344</v>
-      </c>
+        <v>0.601</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.335</v>
+        <v>0.411</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Nd</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0.296</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.331</v>
+        <v>0.315</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pm</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.272</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.318</v>
+        <v>0.292</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pr</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.262</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hf</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.303</v>
+        <v>0.277</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ce</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.251</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sr</t>
+          <t>Te</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.289</v>
+        <v>0.258</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>La</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.199</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Ag</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.287</v>
+        <v>0.258</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -634,11 +580,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pm</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.264</v>
+        <v>0.243</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -648,11 +594,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sc</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.258</v>
+        <v>0.235</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
